--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H2">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I2">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J2">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.082080666666666</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N2">
-        <v>9.246241999999999</v>
+        <v>0.146159</v>
       </c>
       <c r="O2">
-        <v>0.822428495022819</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P2">
-        <v>0.8679967027127143</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q2">
-        <v>26.56980992219866</v>
+        <v>0.7622628865410001</v>
       </c>
       <c r="R2">
-        <v>159.418859533192</v>
+        <v>3.049051546164</v>
       </c>
       <c r="S2">
-        <v>0.3075312331956604</v>
+        <v>0.01026345693733141</v>
       </c>
       <c r="T2">
-        <v>0.2567941514955643</v>
+        <v>0.006299688401089478</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H3">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I3">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J3">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01806466666666667</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N3">
-        <v>0.05419400000000001</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O3">
-        <v>0.004820411347579554</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P3">
-        <v>0.005087495363717806</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q3">
-        <v>0.1557307583906667</v>
+        <v>32.14794443757199</v>
       </c>
       <c r="R3">
-        <v>0.934384550344</v>
+        <v>192.887666625432</v>
       </c>
       <c r="S3">
-        <v>0.001802499615714755</v>
+        <v>0.4328546610159485</v>
       </c>
       <c r="T3">
-        <v>0.001505119836377916</v>
+        <v>0.3985279283592961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H4">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I4">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J4">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.590216</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N4">
-        <v>1.180432</v>
+        <v>0.021442</v>
       </c>
       <c r="O4">
-        <v>0.1574944036566601</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P4">
-        <v>0.1108137861605369</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q4">
-        <v>5.088097499408</v>
+        <v>0.07455096077199999</v>
       </c>
       <c r="R4">
-        <v>20.352389997632</v>
+        <v>0.447305764632</v>
       </c>
       <c r="S4">
-        <v>0.05889198692781671</v>
+        <v>0.001003788311132671</v>
       </c>
       <c r="T4">
-        <v>0.03278391738375568</v>
+        <v>0.0009241847487746946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H5">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I5">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J5">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.057175</v>
+        <v>0.6418275</v>
       </c>
       <c r="N5">
-        <v>0.171525</v>
+        <v>1.283655</v>
       </c>
       <c r="O5">
-        <v>0.01525668997294134</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P5">
-        <v>0.0161020157630309</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q5">
-        <v>0.4928906951499999</v>
+        <v>6.694644637845</v>
       </c>
       <c r="R5">
-        <v>2.957344170899999</v>
+        <v>26.77857855138</v>
       </c>
       <c r="S5">
-        <v>0.005704944211268282</v>
+        <v>0.09013976433124303</v>
       </c>
       <c r="T5">
-        <v>0.004763731777221131</v>
+        <v>0.05532759881020336</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.077996666666666</v>
+        <v>10.430598</v>
       </c>
       <c r="H6">
-        <v>15.23399</v>
+        <v>20.861196</v>
       </c>
       <c r="I6">
-        <v>0.2202617299243858</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J6">
-        <v>0.2614004177090131</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.082080666666666</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N6">
-        <v>9.246241999999999</v>
+        <v>0.040064</v>
       </c>
       <c r="O6">
-        <v>0.822428495022819</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P6">
-        <v>0.8679967027127143</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q6">
-        <v>15.65079535173111</v>
+        <v>0.139297159424</v>
       </c>
       <c r="R6">
-        <v>140.85715816558</v>
+        <v>0.835782956544</v>
       </c>
       <c r="S6">
-        <v>0.1811495230528353</v>
+        <v>0.001875560810429033</v>
       </c>
       <c r="T6">
-        <v>0.2268947006591496</v>
+        <v>0.001726822953778069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>15.23399</v>
       </c>
       <c r="I7">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J7">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01806466666666667</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N7">
-        <v>0.05419400000000001</v>
+        <v>0.146159</v>
       </c>
       <c r="O7">
-        <v>0.004820411347579554</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P7">
-        <v>0.005087495363717806</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q7">
-        <v>0.0917323171177778</v>
+        <v>0.3710974574016667</v>
       </c>
       <c r="R7">
-        <v>0.82559085406</v>
+        <v>2.22658474441</v>
       </c>
       <c r="S7">
-        <v>0.001061752142365012</v>
+        <v>0.00499662628319544</v>
       </c>
       <c r="T7">
-        <v>0.001329873413168502</v>
+        <v>0.004600378142524192</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>15.23399</v>
       </c>
       <c r="I8">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J8">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.590216</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N8">
-        <v>1.180432</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O8">
-        <v>0.1574944036566601</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P8">
-        <v>0.1108137861605369</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q8">
-        <v>2.997114880613333</v>
+        <v>15.65079535173111</v>
       </c>
       <c r="R8">
-        <v>17.98268928368</v>
+        <v>140.85715816558</v>
       </c>
       <c r="S8">
-        <v>0.03468998980282548</v>
+        <v>0.2107294831792115</v>
       </c>
       <c r="T8">
-        <v>0.02896676999028159</v>
+        <v>0.291026961030721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>15.23399</v>
       </c>
       <c r="I9">
-        <v>0.2202617299243858</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J9">
-        <v>0.2614004177090131</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.057175</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N9">
-        <v>0.171525</v>
+        <v>0.021442</v>
       </c>
       <c r="O9">
-        <v>0.01525668997294134</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P9">
-        <v>0.0161020157630309</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q9">
-        <v>0.2903344594166666</v>
+        <v>0.03629413484222222</v>
       </c>
       <c r="R9">
-        <v>2.61301013475</v>
+        <v>0.32664721358</v>
       </c>
       <c r="S9">
-        <v>0.00336046492636009</v>
+        <v>0.0004886808693011337</v>
       </c>
       <c r="T9">
-        <v>0.004209073646413389</v>
+        <v>0.0006748904147675047</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.264576</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H10">
-        <v>0.793728</v>
+        <v>15.23399</v>
       </c>
       <c r="I10">
-        <v>0.01147617284568409</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J10">
-        <v>0.01361959872281258</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.082080666666666</v>
+        <v>0.6418275</v>
       </c>
       <c r="N10">
-        <v>9.246241999999999</v>
+        <v>1.283655</v>
       </c>
       <c r="O10">
-        <v>0.822428495022819</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P10">
-        <v>0.8679967027127143</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q10">
-        <v>0.8154445744639999</v>
+        <v>3.259197905575</v>
       </c>
       <c r="R10">
-        <v>7.339001170175999</v>
+        <v>19.55518743345</v>
       </c>
       <c r="S10">
-        <v>0.009438331562097706</v>
+        <v>0.04388333466673446</v>
       </c>
       <c r="T10">
-        <v>0.01182176678367161</v>
+        <v>0.04040324854810098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.077996666666666</v>
+      </c>
+      <c r="H11">
+        <v>15.23399</v>
+      </c>
+      <c r="I11">
+        <v>0.2610112166105907</v>
+      </c>
+      <c r="J11">
+        <v>0.3379664990099709</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G11">
-        <v>0.264576</v>
-      </c>
-      <c r="H11">
-        <v>0.793728</v>
-      </c>
-      <c r="I11">
-        <v>0.01147617284568409</v>
-      </c>
-      <c r="J11">
-        <v>0.01361959872281258</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>0.01806466666666667</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N11">
-        <v>0.05419400000000001</v>
+        <v>0.040064</v>
       </c>
       <c r="O11">
-        <v>0.004820411347579554</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P11">
-        <v>0.005087495363717806</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q11">
-        <v>0.004779477248000001</v>
+        <v>0.06781495281777777</v>
       </c>
       <c r="R11">
-        <v>0.043015295232</v>
+        <v>0.61033457536</v>
       </c>
       <c r="S11">
-        <v>5.531987381211991E-05</v>
+        <v>0.0009130916121481497</v>
       </c>
       <c r="T11">
-        <v>6.928964535800593E-05</v>
+        <v>0.001261020873857164</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="H12">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="I12">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J12">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.590216</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N12">
-        <v>1.180432</v>
+        <v>0.146159</v>
       </c>
       <c r="O12">
-        <v>0.1574944036566601</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P12">
-        <v>0.1108137861605369</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q12">
-        <v>0.156156988416</v>
+        <v>0.010507955146</v>
       </c>
       <c r="R12">
-        <v>0.9369419304959999</v>
+        <v>0.063047730876</v>
       </c>
       <c r="S12">
-        <v>0.001807432998591772</v>
+        <v>0.0001414839250927903</v>
       </c>
       <c r="T12">
-        <v>0.001509239300462074</v>
+        <v>0.0001302638059413066</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,51 +1225,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.264576</v>
+        <v>0.143788</v>
       </c>
       <c r="H13">
-        <v>0.793728</v>
+        <v>0.431364</v>
       </c>
       <c r="I13">
-        <v>0.01147617284568409</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J13">
-        <v>0.01361959872281258</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.057175</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N13">
-        <v>0.171525</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O13">
-        <v>0.01525668997294134</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P13">
-        <v>0.0161020157630309</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q13">
-        <v>0.0151271328</v>
+        <v>0.4431662148986666</v>
       </c>
       <c r="R13">
-        <v>0.1361441952</v>
+        <v>3.988495934087999</v>
       </c>
       <c r="S13">
-        <v>0.00017508841118249</v>
+        <v>0.005966993071553637</v>
       </c>
       <c r="T13">
-        <v>0.0002193029933208835</v>
+        <v>0.008240687700205656</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.26402</v>
+        <v>0.143788</v>
       </c>
       <c r="H14">
-        <v>4.52804</v>
+        <v>0.431364</v>
       </c>
       <c r="I14">
-        <v>0.09820348348333063</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J14">
-        <v>0.07769675228900108</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.082080666666666</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N14">
-        <v>9.246241999999999</v>
+        <v>0.021442</v>
       </c>
       <c r="O14">
-        <v>0.822428495022819</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P14">
-        <v>0.8679967027127143</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q14">
-        <v>6.977892270946666</v>
+        <v>0.001027700765333333</v>
       </c>
       <c r="R14">
-        <v>41.86735362568</v>
+        <v>0.009249306887999999</v>
       </c>
       <c r="S14">
-        <v>0.08076534312719387</v>
+        <v>1.383743421816702E-05</v>
       </c>
       <c r="T14">
-        <v>0.06744052479833948</v>
+        <v>1.911012340665642E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.26402</v>
+        <v>0.143788</v>
       </c>
       <c r="H15">
-        <v>4.52804</v>
+        <v>0.431364</v>
       </c>
       <c r="I15">
-        <v>0.09820348348333063</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J15">
-        <v>0.07769675228900108</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.01806466666666667</v>
+        <v>0.6418275</v>
       </c>
       <c r="N15">
-        <v>0.05419400000000001</v>
+        <v>1.283655</v>
       </c>
       <c r="O15">
-        <v>0.004820411347579554</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P15">
-        <v>0.005087495363717806</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q15">
-        <v>0.04089876662666667</v>
+        <v>0.09228709256999999</v>
       </c>
       <c r="R15">
-        <v>0.24539259976</v>
+        <v>0.5537225554199999</v>
       </c>
       <c r="S15">
-        <v>0.0004733811861548883</v>
+        <v>0.001242595720174507</v>
       </c>
       <c r="T15">
-        <v>0.0003952818670462238</v>
+        <v>0.001144053981045217</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.26402</v>
+        <v>0.143788</v>
       </c>
       <c r="H16">
-        <v>4.52804</v>
+        <v>0.431364</v>
       </c>
       <c r="I16">
-        <v>0.09820348348333063</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J16">
-        <v>0.07769675228900108</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.590216</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N16">
-        <v>1.180432</v>
+        <v>0.040064</v>
       </c>
       <c r="O16">
-        <v>0.1574944036566601</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P16">
-        <v>0.1108137861605369</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q16">
-        <v>1.33626082832</v>
+        <v>0.001920240810666667</v>
       </c>
       <c r="R16">
-        <v>5.34504331328</v>
+        <v>0.017282167296</v>
       </c>
       <c r="S16">
-        <v>0.01546649906821383</v>
+        <v>2.585500254251673E-05</v>
       </c>
       <c r="T16">
-        <v>0.00860987129352157</v>
+        <v>3.570692958512652E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.26402</v>
+        <v>2.8592275</v>
       </c>
       <c r="H17">
-        <v>4.52804</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I17">
-        <v>0.09820348348333063</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J17">
-        <v>0.07769675228900108</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.057175</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N17">
-        <v>0.171525</v>
+        <v>0.146159</v>
       </c>
       <c r="O17">
-        <v>0.01525668997294134</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P17">
-        <v>0.0161020157630309</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q17">
-        <v>0.1294453435</v>
+        <v>0.20895091608625</v>
       </c>
       <c r="R17">
-        <v>0.7766720609999999</v>
+        <v>0.8358036643450001</v>
       </c>
       <c r="S17">
-        <v>0.001498260101768041</v>
+        <v>0.00281341092047491</v>
       </c>
       <c r="T17">
-        <v>0.001251074330093802</v>
+        <v>0.001726865738457763</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.413899000000001</v>
+        <v>2.8592275</v>
       </c>
       <c r="H18">
-        <v>19.241697</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I18">
-        <v>0.2782074471560547</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J18">
-        <v>0.3301687629590321</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,27 +1559,27 @@
         <v>9.246241999999999</v>
       </c>
       <c r="O18">
-        <v>0.822428495022819</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P18">
-        <v>0.8679967027127143</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q18">
-        <v>19.76815410585267</v>
+        <v>8.812369799351666</v>
       </c>
       <c r="R18">
-        <v>177.913386952674</v>
+        <v>52.87421879611</v>
       </c>
       <c r="S18">
-        <v>0.2288057320686945</v>
+        <v>0.1186537867033106</v>
       </c>
       <c r="T18">
-        <v>0.2865853975871756</v>
+        <v>0.1092441691533822</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,57 +1591,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.413899000000001</v>
+        <v>2.8592275</v>
       </c>
       <c r="H19">
-        <v>19.241697</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I19">
-        <v>0.2782074471560547</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J19">
-        <v>0.3301687629590321</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.01806466666666667</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N19">
-        <v>0.05419400000000001</v>
+        <v>0.021442</v>
       </c>
       <c r="O19">
-        <v>0.004820411347579554</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P19">
-        <v>0.005087495363717806</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q19">
-        <v>0.1158649474686667</v>
+        <v>0.02043585201833333</v>
       </c>
       <c r="R19">
-        <v>1.042784527218</v>
+        <v>0.12261511211</v>
       </c>
       <c r="S19">
-        <v>0.001341074335252185</v>
+        <v>0.0002751576796813653</v>
       </c>
       <c r="T19">
-        <v>0.001679732050798519</v>
+        <v>0.0002533368124030087</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.413899000000001</v>
+        <v>2.8592275</v>
       </c>
       <c r="H20">
-        <v>19.241697</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I20">
-        <v>0.2782074471560547</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J20">
-        <v>0.3301687629590321</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.590216</v>
+        <v>0.6418275</v>
       </c>
       <c r="N20">
-        <v>1.180432</v>
+        <v>1.283655</v>
       </c>
       <c r="O20">
-        <v>0.1574944036566601</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P20">
-        <v>0.1108137861605369</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q20">
-        <v>3.785585812184</v>
+        <v>1.83513083825625</v>
       </c>
       <c r="R20">
-        <v>22.713514873104</v>
+        <v>7.340523353025</v>
       </c>
       <c r="S20">
-        <v>0.04381611598268463</v>
+        <v>0.02470904285827229</v>
       </c>
       <c r="T20">
-        <v>0.03658725069543117</v>
+        <v>0.01516635882497828</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,25 +1712,25 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.413899000000001</v>
+        <v>2.8592275</v>
       </c>
       <c r="H21">
-        <v>19.241697</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I21">
-        <v>0.2782074471560547</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J21">
-        <v>0.3301687629590321</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.057175</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N21">
-        <v>0.171525</v>
+        <v>0.040064</v>
       </c>
       <c r="O21">
-        <v>0.01525668997294134</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P21">
-        <v>0.0161020157630309</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q21">
-        <v>0.366714675325</v>
+        <v>0.03818403018666667</v>
       </c>
       <c r="R21">
-        <v>3.300432077925</v>
+        <v>0.22910418112</v>
       </c>
       <c r="S21">
-        <v>0.004244524769423387</v>
+        <v>0.0005141272865756096</v>
       </c>
       <c r="T21">
-        <v>0.005316382625626746</v>
+        <v>0.0004733553797273642</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.413146</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H22">
-        <v>1.239438</v>
+        <v>2.393869</v>
       </c>
       <c r="I22">
-        <v>0.0179205026400845</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J22">
-        <v>0.02126754782722214</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.082080666666666</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N22">
-        <v>9.246241999999999</v>
+        <v>0.146159</v>
       </c>
       <c r="O22">
-        <v>0.822428495022819</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P22">
-        <v>0.8679967027127143</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q22">
-        <v>1.273349299110667</v>
+        <v>0.05831424986183333</v>
       </c>
       <c r="R22">
-        <v>11.460143691996</v>
+        <v>0.349885499171</v>
       </c>
       <c r="S22">
-        <v>0.01473833201633715</v>
+        <v>0.000785169792282047</v>
       </c>
       <c r="T22">
-        <v>0.01846016138881377</v>
+        <v>0.0007229033643626026</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.413146</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H23">
-        <v>1.239438</v>
+        <v>2.393869</v>
       </c>
       <c r="I23">
-        <v>0.0179205026400845</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J23">
-        <v>0.02126754782722214</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.01806466666666667</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N23">
-        <v>0.05419400000000001</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O23">
-        <v>0.004820411347579554</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P23">
-        <v>0.005087495363717806</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q23">
-        <v>0.007463344774666668</v>
+        <v>2.459365787810888</v>
       </c>
       <c r="R23">
-        <v>0.067170102972</v>
+        <v>22.13429209029799</v>
       </c>
       <c r="S23">
-        <v>8.638419428059269E-05</v>
+        <v>0.03311402837790597</v>
       </c>
       <c r="T23">
-        <v>0.0001081985509686393</v>
+        <v>0.04573197305339251</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.413146</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H24">
-        <v>1.239438</v>
+        <v>2.393869</v>
       </c>
       <c r="I24">
-        <v>0.0179205026400845</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J24">
-        <v>0.02126754782722214</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.590216</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N24">
-        <v>1.180432</v>
+        <v>0.021442</v>
       </c>
       <c r="O24">
-        <v>0.1574944036566601</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P24">
-        <v>0.1108137861605369</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q24">
-        <v>0.243845379536</v>
+        <v>0.005703259899777776</v>
       </c>
       <c r="R24">
-        <v>1.463072277216</v>
+        <v>0.05132933909799999</v>
       </c>
       <c r="S24">
-        <v>0.002822378876527713</v>
+        <v>7.67913057520082E-05</v>
       </c>
       <c r="T24">
-        <v>0.002356737497084785</v>
+        <v>0.0001060522714212804</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,418 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.413146</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H25">
-        <v>1.239438</v>
+        <v>2.393869</v>
       </c>
       <c r="I25">
-        <v>0.0179205026400845</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J25">
-        <v>0.02126754782722214</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6418275</v>
+      </c>
+      <c r="N25">
+        <v>1.283655</v>
+      </c>
+      <c r="O25">
+        <v>0.1681281564700153</v>
+      </c>
+      <c r="P25">
+        <v>0.1195480873591231</v>
+      </c>
+      <c r="Q25">
+        <v>0.5121503185324999</v>
+      </c>
+      <c r="R25">
+        <v>3.072901911194999</v>
+      </c>
+      <c r="S25">
+        <v>0.006895826666245739</v>
+      </c>
+      <c r="T25">
+        <v>0.006348965976647873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7979563333333332</v>
+      </c>
+      <c r="H26">
+        <v>2.393869</v>
+      </c>
+      <c r="I26">
+        <v>0.04101529934681446</v>
+      </c>
+      <c r="J26">
+        <v>0.05310805147033049</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M25">
-        <v>0.057175</v>
-      </c>
-      <c r="N25">
-        <v>0.171525</v>
-      </c>
-      <c r="O25">
-        <v>0.01525668997294134</v>
-      </c>
-      <c r="P25">
-        <v>0.0161020157630309</v>
-      </c>
-      <c r="Q25">
-        <v>0.02362162255</v>
-      </c>
-      <c r="R25">
-        <v>0.21259460295</v>
-      </c>
-      <c r="S25">
-        <v>0.000273407552939046</v>
-      </c>
-      <c r="T25">
-        <v>0.0003424503903549444</v>
+      <c r="M26">
+        <v>0.01335466666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.040064</v>
+      </c>
+      <c r="O26">
+        <v>0.003498284954973465</v>
+      </c>
+      <c r="P26">
+        <v>0.003731200807036086</v>
+      </c>
+      <c r="Q26">
+        <v>0.01065644084622222</v>
+      </c>
+      <c r="R26">
+        <v>0.09590796761599998</v>
+      </c>
+      <c r="S26">
+        <v>0.000143483204628694</v>
+      </c>
+      <c r="T26">
+        <v>0.0001981568045062111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.1455233333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.43657</v>
+      </c>
+      <c r="I27">
+        <v>0.007479962034613753</v>
+      </c>
+      <c r="J27">
+        <v>0.009685317797424247</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.07307950000000001</v>
+      </c>
+      <c r="N27">
+        <v>0.146159</v>
+      </c>
+      <c r="O27">
+        <v>0.01914333930962835</v>
+      </c>
+      <c r="P27">
+        <v>0.01361193537229401</v>
+      </c>
+      <c r="Q27">
+        <v>0.01063477243833333</v>
+      </c>
+      <c r="R27">
+        <v>0.06380863463000001</v>
+      </c>
+      <c r="S27">
+        <v>0.0001431914512517491</v>
+      </c>
+      <c r="T27">
+        <v>0.0001318359199186678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.1455233333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.43657</v>
+      </c>
+      <c r="I28">
+        <v>0.007479962034613753</v>
+      </c>
+      <c r="J28">
+        <v>0.009685317797424247</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N28">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.8073579592313238</v>
+      </c>
+      <c r="P28">
+        <v>0.8611118613331405</v>
+      </c>
+      <c r="Q28">
+        <v>0.4485146522155555</v>
+      </c>
+      <c r="R28">
+        <v>4.03663186994</v>
+      </c>
+      <c r="S28">
+        <v>0.006039006883393541</v>
+      </c>
+      <c r="T28">
+        <v>0.008340142036142986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.1455233333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.43657</v>
+      </c>
+      <c r="I29">
+        <v>0.007479962034613753</v>
+      </c>
+      <c r="J29">
+        <v>0.009685317797424247</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.021442</v>
+      </c>
+      <c r="O29">
+        <v>0.001872260034059031</v>
+      </c>
+      <c r="P29">
+        <v>0.001996915128406244</v>
+      </c>
+      <c r="Q29">
+        <v>0.001040103771111111</v>
+      </c>
+      <c r="R29">
+        <v>0.00936093394</v>
+      </c>
+      <c r="S29">
+        <v>1.400443397368621E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.934075763309872E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.1455233333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.43657</v>
+      </c>
+      <c r="I30">
+        <v>0.007479962034613753</v>
+      </c>
+      <c r="J30">
+        <v>0.009685317797424247</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6418275</v>
+      </c>
+      <c r="N30">
+        <v>1.283655</v>
+      </c>
+      <c r="O30">
+        <v>0.1681281564700153</v>
+      </c>
+      <c r="P30">
+        <v>0.1195480873591231</v>
+      </c>
+      <c r="Q30">
+        <v>0.093400877225</v>
+      </c>
+      <c r="R30">
+        <v>0.56040526335</v>
+      </c>
+      <c r="S30">
+        <v>0.001257592227345315</v>
+      </c>
+      <c r="T30">
+        <v>0.001157861218147343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.1455233333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.43657</v>
+      </c>
+      <c r="I31">
+        <v>0.007479962034613753</v>
+      </c>
+      <c r="J31">
+        <v>0.009685317797424247</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.01335466666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.040064</v>
+      </c>
+      <c r="O31">
+        <v>0.003498284954973465</v>
+      </c>
+      <c r="P31">
+        <v>0.003731200807036086</v>
+      </c>
+      <c r="Q31">
+        <v>0.001943415608888889</v>
+      </c>
+      <c r="R31">
+        <v>0.01749074048</v>
+      </c>
+      <c r="S31">
+        <v>2.6167038649462E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.613786558215031E-05</v>
       </c>
     </row>
   </sheetData>
